--- a/bots/crawl_ch/output/bread_coop_2023-03-03.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-03.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -5942,31 +5942,31 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4454371</t>
+          <t>5669487</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkornbrot</t>
+          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-vollkornbrot/p/4454371</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-butterblaetterteig-eckig-ausgewallt-25x42cm/p/5669487</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5975,12 +5975,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6000,46 +6000,46 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkornbrot 2.50 Schweizer Franken</t>
+          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5669487</t>
+          <t>4454371</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm</t>
+          <t>Naturaplan Bio Vollkornbrot</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-butterblaetterteig-eckig-ausgewallt-25x42cm/p/5669487</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-vollkornbrot/p/4454371</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -6048,12 +6048,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6073,22 +6073,22 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm 3.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkornbrot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8364,31 +8364,31 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6529966</t>
+          <t>3378512</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln Joghurt</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-joghurt/p/6529966</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-naturaplan-bio-kuchenteig-rund-ausgewallt-32cm/p/3378512</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -8397,12 +8397,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8422,46 +8422,46 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln Joghurt 1.45 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 20% ab 2 Aktion 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3378512</t>
+          <t>6529966</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm</t>
+          <t>Fairtrade Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-naturaplan-bio-kuchenteig-rund-ausgewallt-32cm/p/3378512</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-joghurt/p/6529966</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E113" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8470,12 +8470,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8495,60 +8495,60 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 20% ab 2 Aktion 2.10 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln Joghurt 1.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3041212</t>
+          <t>6384092</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm</t>
+          <t>Bauli Croissant Chocolate 6 Stück</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-classica-original-rund-ausgewallt-24cm/p/3041212</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8568,60 +8568,56 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Chocolate 6 Stück 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6384092</t>
+          <t>3041212</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück</t>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-classica-original-rund-ausgewallt-24cm/p/3041212</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8631,7 +8627,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8641,18 +8637,22 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9009,45 +9009,45 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3042398</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mini Panettone</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/mini-panettone/p/3042398</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E121" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9072,51 +9072,51 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Mini Panettone 1.60 Schweizer Franken</t>
+          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4944608</t>
+          <t>3042398</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Schär Meisterbäckers Classic glutenfrei</t>
+          <t>Mini Panettone</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaeckers-classic-glutenfrei/p/4944608</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/mini-panettone/p/3042398</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E122" t="n">
         <v>4.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9136,60 +9136,56 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Schär Meisterbäckers Classic glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Mini Panettone 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>4944608</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>Schär Meisterbäckers Classic glutenfrei</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaeckers-classic-glutenfrei/p/4944608</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E123" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9199,7 +9195,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9209,18 +9205,22 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
+          <t>Schär Meisterbäckers Classic glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10482,31 +10482,31 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E142" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -10515,12 +10515,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10540,12 +10540,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10555,31 +10555,31 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -10588,12 +10588,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10613,12 +10613,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11480,45 +11480,45 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6797336</t>
+          <t>6383814</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
+          <t>Bauli Croissant Cream 6 Stück</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>3.19/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11538,56 +11538,56 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück 9.20 Schweizer Franken</t>
+          <t>Bauli Croissant Cream 6 Stück 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>4835222</t>
+          <t>6797336</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>3.38/100g</t>
+          <t>3.19/100g</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11607,60 +11607,56 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück 9.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6383814</t>
+          <t>4835222</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück</t>
+          <t>Reiswaffeln Barbecue Flavour</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E158" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>3.38/100g</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11670,7 +11666,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11680,18 +11676,22 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr"/>
+          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -12831,45 +12831,45 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5909397</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12889,56 +12889,56 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 40% ab 4 Aktion 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>5909397</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12958,18 +12958,18 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.50 Schweizer Franken</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 40% ab 4 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13107,45 +13107,45 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>6734420</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Reiswaffeln Vollmilch-Kokos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13165,56 +13165,60 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Reiswaffeln Vollmilch-Kokos 1.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6734420</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13224,7 +13228,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13234,22 +13238,18 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos 1.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13391,45 +13391,45 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.42/100g</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13449,56 +13449,56 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Bündner Nusstorte 18% Aktion 7.25 Schweizer Franken statt 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2.42/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13518,18 +13518,18 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 18% Aktion 7.25 Schweizer Franken statt 8.95 Schweizer Franken</t>
+          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15525,45 +15525,45 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0.69/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15583,56 +15583,56 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.75 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D214" t="n">
         <v>10</v>
       </c>
       <c r="E214" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>0.69/100g</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15642,7 +15642,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15652,46 +15652,42 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E215" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -15700,12 +15696,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15715,7 +15711,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15725,18 +15721,22 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -15809,45 +15809,45 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15857,7 +15857,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15867,60 +15867,56 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 40% ab 4 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15930,7 +15926,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15940,18 +15936,22 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr"/>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 40% ab 4 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16300,7 +16300,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16442,7 +16442,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16511,45 +16511,45 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6338742</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E227" t="n">
         <v>4.5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16569,56 +16569,56 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>6338742</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Country Cracker Nature Stange</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E228" t="n">
         <v>4.5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16638,18 +16638,18 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
+          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -16925,45 +16925,45 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E233" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16983,60 +16983,60 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E234" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17056,22 +17056,22 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18148,7 +18148,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18217,45 +18217,45 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>7036109</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18265,7 +18265,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18275,60 +18275,56 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>7036109</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Quicook Kuchenteig</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E252" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18338,7 +18334,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18348,42 +18344,44 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N252" t="inlineStr"/>
+          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>27</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -18392,12 +18390,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18407,7 +18405,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18422,49 +18420,51 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20</v>
+      </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18474,7 +18474,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18489,13 +18489,13 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18568,7 +18568,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18706,7 +18706,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18775,7 +18775,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18844,7 +18844,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19132,7 +19132,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19205,7 +19205,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19274,45 +19274,45 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19332,60 +19332,56 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19395,7 +19391,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19405,43 +19401,43 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E268" t="n">
         <v>4.5</v>
@@ -19453,12 +19449,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19468,7 +19464,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19478,18 +19474,22 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19556,7 +19556,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19623,28 +19623,28 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E271" t="n">
         <v>3.5</v>
@@ -19656,12 +19656,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19671,7 +19671,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19681,39 +19681,39 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E272" t="n">
         <v>3.5</v>
@@ -19725,12 +19725,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19750,18 +19750,18 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19834,7 +19834,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19903,7 +19903,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -19972,7 +19972,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20041,7 +20041,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20108,31 +20108,31 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E278" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -20141,12 +20141,12 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>0.48/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20166,43 +20166,43 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
         <v>5</v>
       </c>
-      <c r="E279" t="n">
-        <v>4</v>
-      </c>
       <c r="F279" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -20210,12 +20210,12 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>0.48/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20225,7 +20225,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20235,18 +20235,18 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20319,45 +20319,45 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E281" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20377,56 +20377,60 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E282" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20436,7 +20440,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20446,22 +20450,18 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20530,7 +20530,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20603,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -20743,32 +20743,32 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D287" t="n">
+        <v>26</v>
+      </c>
+      <c r="E287" t="n">
         <v>4</v>
       </c>
-      <c r="E287" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -20776,12 +20776,12 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20801,42 +20801,42 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Panettone 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E288" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -20845,12 +20845,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20870,56 +20870,56 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6629585</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Betty Bossi Marmor Cake</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E289" t="n">
         <v>4.5</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.91/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20929,7 +20929,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20939,60 +20939,56 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6629585</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E290" t="n">
         <v>4.5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>1.91/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21002,7 +20998,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21012,18 +21008,22 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21234,7 +21234,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21303,7 +21303,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21372,7 +21372,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21441,7 +21441,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21510,7 +21510,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21802,7 +21802,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22007,45 +22007,43 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>17</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
       <c r="E305" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22055,7 +22053,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22065,35 +22063,39 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -22102,7 +22104,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -22132,58 +22134,56 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>17</v>
+      </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22193,7 +22193,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22203,18 +22203,18 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22283,7 +22283,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22352,7 +22352,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22492,7 +22492,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22561,7 +22561,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22630,7 +22630,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22772,7 +22772,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22841,7 +22841,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23056,7 +23056,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23123,7 +23123,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23192,7 +23192,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23265,7 +23265,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23334,45 +23334,45 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23382,7 +23382,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23397,51 +23397,51 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23466,13 +23466,13 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23541,7 +23541,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23752,7 +23752,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -23961,7 +23961,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24034,7 +24034,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24103,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24172,7 +24172,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24243,31 +24243,31 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>5825322</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -24276,12 +24276,12 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24301,42 +24301,42 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -24345,12 +24345,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24360,7 +24360,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24370,46 +24370,42 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D339" t="n">
         <v>2</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -24418,12 +24414,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24433,7 +24429,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24443,46 +24439,46 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5825322</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E340" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -24491,12 +24487,12 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24506,7 +24502,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24516,18 +24512,22 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24734,7 +24734,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24872,7 +24872,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25014,7 +25014,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25643,45 +25643,43 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>4080979</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Bauli La Colomba</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
-        </is>
-      </c>
-      <c r="D357" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-la-colomba/p/4080979</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25691,7 +25689,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25701,54 +25699,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Bauli La Colomba 20% Aktion 6.35 Schweizer Franken statt 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>4080979</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Bauli La Colomba</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-la-colomba/p/4080979</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>9</v>
+      </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25758,7 +25758,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25768,18 +25768,18 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Bauli La Colomba 20% Aktion 6.35 Schweizer Franken statt 7.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -25917,31 +25917,29 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>7071615</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Betty Bossi Pinsateig Kugel</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
-        </is>
-      </c>
-      <c r="D361" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-pinsateig-kugel/p/7071615</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -25950,12 +25948,12 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>0.64/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25965,7 +25963,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25975,40 +25973,46 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr"/>
+          <t>Betty Bossi Pinsateig Kugel 11% Aktion 3.20 Schweizer Franken statt 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>7071615</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Betty Bossi Pinsateig Kugel</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-pinsateig-kugel/p/7071615</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>2</v>
+      </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -26017,12 +26021,12 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>0.64/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26032,7 +26036,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26042,22 +26046,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Betty Bossi Pinsateig Kugel 11% Aktion 3.20 Schweizer Franken statt 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26272,7 +26272,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26406,7 +26406,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig 10% Aktion 2.95 Schweizer Franken statt 3.30 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig - Online kein Bestand 10% Aktion 2.95 Schweizer Franken statt 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -26416,7 +26416,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26489,7 +26489,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26765,7 +26765,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26832,7 +26832,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26899,7 +26899,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -26968,7 +26968,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27037,7 +27037,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27104,7 +27104,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27173,7 +27173,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27246,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27313,7 +27313,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27382,7 +27382,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27451,7 +27451,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27518,7 +27518,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27587,24 +27587,24 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>6865009</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Délifrance Petits Panini 4 Stück</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-petits-panini-4-stueck/p/6865009</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -27613,17 +27613,17 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27643,54 +27643,56 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Délifrance Petits Panini 4 Stück 20% ab 2 Aktion 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6865009</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Délifrance Petits Panini 4 Stück</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-petits-panini-4-stueck/p/6865009</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>2</v>
+      </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27700,7 +27702,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27710,56 +27712,54 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Délifrance Petits Panini 4 Stück 20% ab 2 Aktion 3.20 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D387" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27769,7 +27769,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27784,13 +27784,13 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27859,7 +27859,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27926,7 +27926,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -27993,7 +27993,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -28066,7 +28066,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -28135,7 +28135,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
@@ -28202,7 +28202,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-03-03 06:49:37</t>
+          <t>2023-03-03 12:56:25</t>
         </is>
       </c>
     </row>
